--- a/plan my work.xlsx
+++ b/plan my work.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="map" sheetId="4" r:id="rId1"/>
+    <sheet name="plan" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
   <si>
     <t>1) У блока "Новости" сделать эффект выделения при наведении курсором на картинку</t>
   </si>
@@ -97,13 +96,130 @@
   </si>
   <si>
     <t>присмотреться</t>
+  </si>
+  <si>
+    <t>Новости</t>
+  </si>
+  <si>
+    <t>Турниры</t>
+  </si>
+  <si>
+    <t>Федерация</t>
+  </si>
+  <si>
+    <t>Шахматисты</t>
+  </si>
+  <si>
+    <t>Трансляции</t>
+  </si>
+  <si>
+    <t>Клубы и школы</t>
+  </si>
+  <si>
+    <t>Фотоальбом</t>
+  </si>
+  <si>
+    <t>Последние</t>
+  </si>
+  <si>
+    <t>Календарь</t>
+  </si>
+  <si>
+    <t>Президиум</t>
+  </si>
+  <si>
+    <t>Рейтинг-лист</t>
+  </si>
+  <si>
+    <t>Краевой шахматный клуб</t>
+  </si>
+  <si>
+    <t>Объявления</t>
+  </si>
+  <si>
+    <t>Тренерский совет</t>
+  </si>
+  <si>
+    <t>Сборные</t>
+  </si>
+  <si>
+    <t>Администрация АКШК</t>
+  </si>
+  <si>
+    <t>Пресса</t>
+  </si>
+  <si>
+    <t>Судейско-квалификационная комиссия</t>
+  </si>
+  <si>
+    <t>Молодежная сборная АК</t>
+  </si>
+  <si>
+    <t>Время работы</t>
+  </si>
+  <si>
+    <t>Детско-Юношеская Комиссия</t>
+  </si>
+  <si>
+    <t>Чемпионы АК</t>
+  </si>
+  <si>
+    <t>Членство</t>
+  </si>
+  <si>
+    <t>и т.д.</t>
+  </si>
+  <si>
+    <t>Чемпионы Барнаула</t>
+  </si>
+  <si>
+    <t>Реквизиты</t>
+  </si>
+  <si>
+    <t>Архив турниров</t>
+  </si>
+  <si>
+    <t>Контакты</t>
+  </si>
+  <si>
+    <t>Кубок АКШК</t>
+  </si>
+  <si>
+    <t>Документы</t>
+  </si>
+  <si>
+    <t>Секции</t>
+  </si>
+  <si>
+    <t>История шахмат Алтая</t>
+  </si>
+  <si>
+    <t>Академия</t>
+  </si>
+  <si>
+    <t>Проекты Федерации</t>
+  </si>
+  <si>
+    <t>Шахматы в школе</t>
+  </si>
+  <si>
+    <t>Шахматы в детский дом</t>
+  </si>
+  <si>
+    <t>Шахматы в университетах</t>
+  </si>
+  <si>
+    <t>https://tilda.cc/tpls/page/?q=cvtemplateru&amp;startwithexample=77652</t>
+  </si>
+  <si>
+    <t>подключить fontawesome</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,8 +236,17 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,20 +261,80 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF060606"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -163,15 +348,59 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -477,10 +706,240 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="10" customFormat="1">
+      <c r="A1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="10" customFormat="1">
+      <c r="A2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="16">
+        <v>2019</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="16">
+        <v>2018</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="11"/>
+      <c r="B5" s="16">
+        <v>2017</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="11"/>
+      <c r="B6" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="11"/>
+      <c r="B7" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A17" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -499,12 +958,12 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -583,14 +1042,14 @@
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="F26" s="6">
+      <c r="F26" s="5">
         <v>43855</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -610,7 +1069,7 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" t="s">
+      <c r="A35" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -618,7 +1077,7 @@
       <c r="A37" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="6">
         <v>43855</v>
       </c>
     </row>
@@ -633,6 +1092,11 @@
       </c>
       <c r="C41" s="2" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -649,32 +1113,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>